--- a/mengfanjie95/evidence.xlsx
+++ b/mengfanjie95/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,6 +33,7 @@
     <sheet name="B2" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="B5" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="B6" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="B7" sheetId="26" state="visible" r:id="rId27"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="93">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -169,28 +170,160 @@
     <t xml:space="preserve">a04</t>
   </si>
   <si>
-    <t xml:space="preserve">ibc class on chain</t>
+    <t xml:space="preserve">ibc/F05B4EE78320CD87C2A6E758C838F25D5F1C665C883073E130564A2C30E39CD6</t>
   </si>
   <si>
     <t xml:space="preserve">a05</t>
   </si>
   <si>
+    <t xml:space="preserve">ibc/D71DDFC6A62E8F461A758F101878E9B78F77FAC9B9A7B2BAEC447AD307B0EF0E</t>
+  </si>
+  <si>
     <t xml:space="preserve">a06</t>
   </si>
   <si>
-    <t xml:space="preserve">tx hash on that chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chain id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx hash on that chain	chain id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Internal Transfer TxHash on IRISnet</t>
+    <t xml:space="preserve">4D6F50A4DFA492EDF6CFB0395A5AB4D372C82BE4F54A254A06DB0D5F7D40ECCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gon-irishub-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">070F681FDA61010C2F4964C94AD7100C98C5FC1B8A22C057E52762151216DFEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58E6D919431FF11884A6010AA6AE1DFE49763B3D774A1261FFF0BF38B5100285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uptick_7000-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36EAE8607B1FA6D4D6C1B5EE247C2BB6FAF0A74CC6CB1038BC96FF9433E384D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0C19E602511C6114760778DE7D12B7EC42A993A24A2E3F887251B175C823B6D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68D08E6F7BC613D19773CEA8B2CACCF6B83CD06D67EC0734FC570D638BF0EEC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDAF4332616F2516270F461431ED84F7696C0AABB71FEEAA3F8D968FFD342AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3D07312C20DDBECC47BA498748DF9187057EA27EB5976D71934F9D42817B0F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA77F9B2EEB536FC37D45C0E0DF63027CF264E21FAA22613A029425E542ACA8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA28024FB24B514A4CE88261B15A5C0CE7E8571EBFEA1CA9F6242A78ABDFE100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uni-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA801650F05439C05E0B9DE4F1090B1BE5B4C8B64DCFA0997F1FEC2099857809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">062C84B1A2F9BB17447BD9B61EF82C29205D51E0AFD515C4F9C004DE333B5B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B82CE258730FAF0359E09A62381B6102DEFC9EF54BE41527B44C09A3E343345F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDDABC5CCF1AE2D184304621CC2D2ACB0D1327654DCE7A39C7A2A787B61A45EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0319520534EA23F935840C116358879C2757E01175807E72D0B2F853C2D83954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010363EA65D4C4CB0DE76E03BC664CF0407083FB9C20F06FFCC1F29AE600ECD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9FEE2F5C5248178CFE6971ECAC5826856F70189392B1615033602FEA039B037C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD742CC2DEB97B98AA1ED7885C06F4007C09704DD89C0D8DF2D15F083610EF14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD3D4312CD6E7D8A2F36963AA9649C30C77131753EAAA0656EEF160A7EB01258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">747B89E2373E95DD00D963A4E052473BF474A732C6FEF185BF238F851B33A838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47028F2A932563260D8B2C58C79F3707D3CE19E27A2808ECAA515438E6CEFC5C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A720FCE3CD62436A572421DA528C9A1EFF4BAE7E0066368BF3D1E3ED33957D0D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8482648251D80F55AF9626795F3E78196F337A42923CDFEB50EE43539120412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F86132CE03A634EDD57C3CFEDE7C30813A8FEA7853F449882DEBA0582A64B751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFA796D8A282B96EC552AA71B745126DEB210B6DB8618575A89D27106A8F6F6A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A353A10FEBDC13B76B2B48D4E65D76CA3E18EF69BD42D352CC06D587489627A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCD26769E83EBF14DF602059F987973A2E5983FCB4E5839860E7370664321368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19998592317AAD0A164E3E47732BDB0CACD159D1C876D4FDC3C663755DB151ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0BC5F26BEE4296F9ECC3940932DBC8790373413BA6CA409D4C7B86AC8BAD64B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D930C28B2EC9C92A20AEDCEBDB9DBC14EEE354462B7DE8F89D747C94F769B395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF3CC0CAD10CD2BF96C4934A03D30B744B7A1702099CD5155E898F37B4130CA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47FEFB82865C2151EBC2798C749B77C7B02E01C4E5EE4B6BCE0FBD27F881A447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46AA1B0D721E3EA2F3D026D2D4E7D4AAEC98DBFED3995DE2BE7CAD02C2111D91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43B57828BC37C31B11E6541BEDF66503FD102CDF8E6CE57D6AB14BC64080508B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D72E64171351E9DE826BDBA698B686DD8A967BD89952BE7CBD973EFC2A36650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">688C5AE3D005E4C5659720D36ADFCD2656A508CFE7AFB3AA89AD5E9FE5388878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">016C1C86F74A45C8FC960CD334248078D0283E8EA94C73C4F6BA61FBB1761956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9AF41E836B7CB0C4BF48559C03008D12998D0A194762DDFBFDE51014D23BC9E3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA726EA1CDBD29533B827FDB4C08CBE0DFF60D6F05AAC09BB480BD793420E650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B178C645FE0B56C7B50DB8DE170449C112CE604EB0658658726CBD14DE4D8272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233F852B588EE73B963DC050244A7974D6C3210A5CDFAEF7FEF0C5942FEA8693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70225DBA2F6826689B6BDB8D16FEB271562C58F972331F00966EA7F89290A259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F50F0DAA49BB3BEEA32D7940DAD8D5E64E04E485ADBE12DFBAA0BEB42FB25133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E63B0182E4C828BE6DA349BCA0E68FCA7F20751A11CEEDCC846320DDA9E556B9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87A2E06F598AC4C8E5CEA8B2506A8D028481D5DD3123539800F7AF47E4D4CCB6</t>
   </si>
 </sst>
 </file>
@@ -200,7 +333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -229,12 +362,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -317,7 +444,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -342,11 +469,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -430,17 +553,17 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.5"/>
   </cols>
@@ -559,7 +682,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -604,7 +727,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -648,7 +771,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -667,10 +790,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -689,10 +812,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -711,20 +834,34 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -743,10 +880,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -765,20 +902,34 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +948,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -819,20 +970,34 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -851,10 +1016,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -873,20 +1038,34 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -905,10 +1084,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -927,20 +1106,34 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>65</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -959,10 +1152,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -981,20 +1174,34 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>70</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1228,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1056,10 +1263,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1078,20 +1285,50 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>73</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1110,10 +1347,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1132,20 +1369,50 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>78</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>79</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1434,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1182,12 +1449,12 @@
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1476,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1224,26 +1491,68 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1251,7 +1560,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1266,26 +1575,26 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1293,36 +1602,33 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1340,7 +1646,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
   </cols>
   <sheetData>
@@ -1359,7 +1665,7 @@
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1370,15 +1676,15 @@
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1404,7 +1710,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
   </cols>
@@ -1461,7 +1767,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
   </cols>
@@ -1518,7 +1824,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
   </cols>
@@ -1575,7 +1881,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.5"/>
